--- a/Code/Results/Cases/Case_6_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_13/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.55206926687899</v>
+        <v>13.35341854327153</v>
       </c>
       <c r="C2">
-        <v>11.44867293024164</v>
+        <v>7.502065876147753</v>
       </c>
       <c r="D2">
-        <v>4.653999134926348</v>
+        <v>5.29492896186673</v>
       </c>
       <c r="E2">
-        <v>6.577028359610834</v>
+        <v>7.861797116312233</v>
       </c>
       <c r="F2">
-        <v>30.95423748326718</v>
+        <v>20.96006961769497</v>
       </c>
       <c r="G2">
-        <v>2.099363926110897</v>
+        <v>2.107544605239478</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.60410385880806</v>
+        <v>10.81138873607038</v>
       </c>
       <c r="L2">
-        <v>6.171255954436237</v>
+        <v>6.183366007855216</v>
       </c>
       <c r="M2">
-        <v>12.5694139544006</v>
+        <v>9.861612721246276</v>
       </c>
       <c r="N2">
-        <v>13.81818858527391</v>
+        <v>13.44525002080203</v>
       </c>
       <c r="O2">
-        <v>24.45327017020361</v>
+        <v>17.34172002906405</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.27530079744581</v>
+        <v>12.54365782747848</v>
       </c>
       <c r="C3">
-        <v>10.7820763992474</v>
+        <v>7.469983130192964</v>
       </c>
       <c r="D3">
-        <v>4.731085200067835</v>
+        <v>5.169689100768188</v>
       </c>
       <c r="E3">
-        <v>6.616444444478534</v>
+        <v>7.865815218791139</v>
       </c>
       <c r="F3">
-        <v>29.90487462518758</v>
+        <v>20.66179385613064</v>
       </c>
       <c r="G3">
-        <v>2.108135660579061</v>
+        <v>2.112148381617373</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.4427364669047</v>
+        <v>10.17862157670715</v>
       </c>
       <c r="L3">
-        <v>6.095490279231317</v>
+        <v>6.103102859027689</v>
       </c>
       <c r="M3">
-        <v>12.07621244400476</v>
+        <v>9.548490670189416</v>
       </c>
       <c r="N3">
-        <v>14.05252815348844</v>
+        <v>13.64617883135881</v>
       </c>
       <c r="O3">
-        <v>23.83937698469429</v>
+        <v>17.31287979610381</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.4605654049402</v>
+        <v>12.02317677628515</v>
       </c>
       <c r="C4">
-        <v>10.35382947259131</v>
+        <v>7.45065427896818</v>
       </c>
       <c r="D4">
-        <v>4.778702223571804</v>
+        <v>5.0906494572216</v>
       </c>
       <c r="E4">
-        <v>6.641870496073008</v>
+        <v>7.87196932448815</v>
       </c>
       <c r="F4">
-        <v>29.27266552569708</v>
+        <v>20.49274765582473</v>
       </c>
       <c r="G4">
-        <v>2.113663916942219</v>
+        <v>2.11506864628493</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.69110196117571</v>
+        <v>9.769377692973519</v>
       </c>
       <c r="L4">
-        <v>6.051771252381634</v>
+        <v>6.055978405867155</v>
       </c>
       <c r="M4">
-        <v>11.7713197586971</v>
+        <v>9.354960058524741</v>
       </c>
       <c r="N4">
-        <v>14.19994064440855</v>
+        <v>13.77243678439999</v>
       </c>
       <c r="O4">
-        <v>23.47806991046005</v>
+        <v>17.30730149092498</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.12101270999701</v>
+        <v>11.8053614744707</v>
       </c>
       <c r="C5">
-        <v>10.1745654867719</v>
+        <v>7.442870898855242</v>
       </c>
       <c r="D5">
-        <v>4.798199932441422</v>
+        <v>5.057925547536644</v>
       </c>
       <c r="E5">
-        <v>6.652537906149616</v>
+        <v>7.87538454953297</v>
       </c>
       <c r="F5">
-        <v>29.01830532527739</v>
+        <v>20.42739391065274</v>
       </c>
       <c r="G5">
-        <v>2.115954139191862</v>
+        <v>2.116282640831354</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.37500210563028</v>
+        <v>9.597432403746389</v>
       </c>
       <c r="L5">
-        <v>6.034655663803075</v>
+        <v>6.037327955898093</v>
       </c>
       <c r="M5">
-        <v>11.64671546595447</v>
+        <v>9.275891031847525</v>
       </c>
       <c r="N5">
-        <v>14.2609136553474</v>
+        <v>13.82463358204934</v>
       </c>
       <c r="O5">
-        <v>23.3347906242182</v>
+        <v>17.30798426250085</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.06418199557151</v>
+        <v>11.76885304816702</v>
       </c>
       <c r="C6">
-        <v>10.14451279386066</v>
+        <v>7.441584116126173</v>
       </c>
       <c r="D6">
-        <v>4.801443751411839</v>
+        <v>5.052461418409268</v>
       </c>
       <c r="E6">
-        <v>6.654327661994701</v>
+        <v>7.876005868363997</v>
       </c>
       <c r="F6">
-        <v>28.9762733912677</v>
+        <v>20.41675488206099</v>
       </c>
       <c r="G6">
-        <v>2.116336733699933</v>
+        <v>2.116485683703603</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.3219188040295</v>
+        <v>9.568569774623112</v>
       </c>
       <c r="L6">
-        <v>6.031855790392902</v>
+        <v>6.034264759279155</v>
       </c>
       <c r="M6">
-        <v>11.62600846825977</v>
+        <v>9.262752920839866</v>
       </c>
       <c r="N6">
-        <v>14.27109303969148</v>
+        <v>13.83334641889723</v>
       </c>
       <c r="O6">
-        <v>23.31123883085149</v>
+        <v>17.30827338247434</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.45601629712124</v>
+        <v>12.02026217131114</v>
       </c>
       <c r="C7">
-        <v>10.35143105307122</v>
+        <v>7.450548931546078</v>
       </c>
       <c r="D7">
-        <v>4.778964771087561</v>
+        <v>5.090210181919887</v>
       </c>
       <c r="E7">
-        <v>6.642013123287695</v>
+        <v>7.872011735646009</v>
       </c>
       <c r="F7">
-        <v>29.2692215849331</v>
+        <v>20.49185198577221</v>
       </c>
       <c r="G7">
-        <v>2.113694650138483</v>
+        <v>2.115084921037606</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.68687875990348</v>
+        <v>9.767079675211514</v>
       </c>
       <c r="L7">
-        <v>6.051537596271972</v>
+        <v>6.055724626503115</v>
       </c>
       <c r="M7">
-        <v>11.76964052453094</v>
+        <v>9.353894371653622</v>
       </c>
       <c r="N7">
-        <v>14.20075927930117</v>
+        <v>13.77313768396451</v>
       </c>
       <c r="O7">
-        <v>23.47612154540927</v>
+        <v>17.3072988560682</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.11833193684887</v>
+        <v>13.07911908629195</v>
       </c>
       <c r="C8">
-        <v>11.22276842490066</v>
+        <v>7.490927038922074</v>
       </c>
       <c r="D8">
-        <v>4.680532536665667</v>
+        <v>5.252204669196721</v>
       </c>
       <c r="E8">
-        <v>6.590363710538562</v>
+        <v>7.862405492064009</v>
       </c>
       <c r="F8">
-        <v>30.5900355937433</v>
+        <v>20.85429530288423</v>
       </c>
       <c r="G8">
-        <v>2.102359873476174</v>
+        <v>2.10911284916979</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.21159843195288</v>
+        <v>10.59752880700539</v>
       </c>
       <c r="L8">
-        <v>6.144548198642505</v>
+        <v>6.155250211281167</v>
       </c>
       <c r="M8">
-        <v>12.39987734880838</v>
+        <v>9.753979588249816</v>
       </c>
       <c r="N8">
-        <v>13.89826525746074</v>
+        <v>13.51394325950191</v>
       </c>
       <c r="O8">
-        <v>24.238373949907</v>
+        <v>17.32920235905589</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.18367355803935</v>
+        <v>15.04160790691949</v>
       </c>
       <c r="C9">
-        <v>12.78129389794014</v>
+        <v>7.57304366591674</v>
       </c>
       <c r="D9">
-        <v>4.488712262306359</v>
+        <v>5.551915079452883</v>
       </c>
       <c r="E9">
-        <v>6.498894082525449</v>
+        <v>7.873699664771568</v>
       </c>
       <c r="F9">
-        <v>33.26741129994624</v>
+        <v>21.67688095794678</v>
       </c>
       <c r="G9">
-        <v>2.081183383706928</v>
+        <v>2.09812263180317</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.90086136531315</v>
+        <v>12.06070019153471</v>
       </c>
       <c r="L9">
-        <v>6.349342954454579</v>
+        <v>6.367026037838534</v>
       </c>
       <c r="M9">
-        <v>13.61335629534121</v>
+        <v>10.52377310825901</v>
       </c>
       <c r="N9">
-        <v>13.33245332498917</v>
+        <v>13.02762872163865</v>
       </c>
       <c r="O9">
-        <v>25.85597382003961</v>
+        <v>17.47250262672421</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.39701403154922</v>
+        <v>16.41588317939522</v>
       </c>
       <c r="C10">
-        <v>13.83633679933225</v>
+        <v>7.635178115209482</v>
       </c>
       <c r="D10">
-        <v>4.346878648246128</v>
+        <v>5.75999567875721</v>
       </c>
       <c r="E10">
-        <v>6.437847058377975</v>
+        <v>7.901559651314134</v>
       </c>
       <c r="F10">
-        <v>35.27837604340186</v>
+        <v>22.34883880767407</v>
       </c>
       <c r="G10">
-        <v>2.066146075959864</v>
+        <v>2.090456752312404</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.70096865763377</v>
+        <v>13.03443547445856</v>
       </c>
       <c r="L10">
-        <v>6.513720351211377</v>
+        <v>6.532015695197995</v>
       </c>
       <c r="M10">
-        <v>14.48475706293228</v>
+        <v>11.07473406469613</v>
       </c>
       <c r="N10">
-        <v>12.93269851927136</v>
+        <v>12.68233995728511</v>
       </c>
       <c r="O10">
-        <v>27.11833851088333</v>
+        <v>17.64439948073935</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.36116567968611</v>
+        <v>17.00830423624726</v>
       </c>
       <c r="C11">
-        <v>14.29740168105253</v>
+        <v>7.663842870383582</v>
       </c>
       <c r="D11">
-        <v>4.281746024644711</v>
+        <v>5.851813614654682</v>
       </c>
       <c r="E11">
-        <v>6.411462745208156</v>
+        <v>7.918733630643928</v>
       </c>
       <c r="F11">
-        <v>36.20162727867541</v>
+        <v>22.66895213636535</v>
       </c>
       <c r="G11">
-        <v>2.059388764934448</v>
+        <v>2.087050884829009</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.48354874381372</v>
+        <v>13.45549977423256</v>
       </c>
       <c r="L11">
-        <v>6.591589657090145</v>
+        <v>6.608953345212898</v>
       </c>
       <c r="M11">
-        <v>14.87607557771971</v>
+        <v>11.32121982236272</v>
       </c>
       <c r="N11">
-        <v>12.75418945313433</v>
+        <v>12.52754385418024</v>
       </c>
       <c r="O11">
-        <v>27.70874883587946</v>
+        <v>17.73817123104251</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.72028931597072</v>
+        <v>17.22798447740626</v>
       </c>
       <c r="C12">
-        <v>14.46935113999782</v>
+        <v>7.674755576256263</v>
       </c>
       <c r="D12">
-        <v>4.256955191351179</v>
+        <v>5.886158854660715</v>
       </c>
       <c r="E12">
-        <v>6.401676534872689</v>
+        <v>7.925904405483243</v>
       </c>
       <c r="F12">
-        <v>36.55242492475361</v>
+        <v>22.79221796911147</v>
       </c>
       <c r="G12">
-        <v>2.05683917884551</v>
+        <v>2.085772251326646</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.77483433770755</v>
+        <v>13.61181128046417</v>
       </c>
       <c r="L12">
-        <v>6.621528499725223</v>
+        <v>6.638344755641679</v>
       </c>
       <c r="M12">
-        <v>15.07687495866358</v>
+        <v>11.41389152782423</v>
       </c>
       <c r="N12">
-        <v>12.68706939774287</v>
+        <v>12.46922628252084</v>
       </c>
       <c r="O12">
-        <v>27.93467759021598</v>
+        <v>17.77600597685923</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.64320874829312</v>
+        <v>17.18087867333785</v>
       </c>
       <c r="C13">
-        <v>14.43243516440026</v>
+        <v>7.672402739570125</v>
       </c>
       <c r="D13">
-        <v>4.262300629647509</v>
+        <v>5.878781096848939</v>
       </c>
       <c r="E13">
-        <v>6.403774953870804</v>
+        <v>7.924330049704118</v>
       </c>
       <c r="F13">
-        <v>36.4768217049524</v>
+        <v>22.76557997043988</v>
       </c>
       <c r="G13">
-        <v>2.057387912104048</v>
+        <v>2.086047144548505</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.71232316447106</v>
+        <v>13.5782860477882</v>
       </c>
       <c r="L13">
-        <v>6.615060429576911</v>
+        <v>6.632003586772956</v>
       </c>
       <c r="M13">
-        <v>15.03378160900684</v>
+        <v>11.39396370662087</v>
       </c>
       <c r="N13">
-        <v>12.70150366545574</v>
+        <v>12.48177310552408</v>
       </c>
       <c r="O13">
-        <v>27.88591434165064</v>
+        <v>17.76775283132836</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.39082983291611</v>
+        <v>17.02647048720102</v>
       </c>
       <c r="C14">
-        <v>14.31160064479622</v>
+        <v>7.664739499160389</v>
       </c>
       <c r="D14">
-        <v>4.279709240229153</v>
+        <v>5.854647805863876</v>
       </c>
       <c r="E14">
-        <v>6.410653484159814</v>
+        <v>7.919310084513471</v>
       </c>
       <c r="F14">
-        <v>36.23046390173697</v>
+        <v>22.67905246615011</v>
       </c>
       <c r="G14">
-        <v>2.059178839868153</v>
+        <v>2.086945472135302</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.50761344640527</v>
+        <v>13.46842238729175</v>
       </c>
       <c r="L14">
-        <v>6.594043651265219</v>
+        <v>6.611366326369193</v>
       </c>
       <c r="M14">
-        <v>14.89266430226184</v>
+        <v>11.32885771827358</v>
       </c>
       <c r="N14">
-        <v>12.74865787757507</v>
+        <v>12.52274017392381</v>
       </c>
       <c r="O14">
-        <v>27.72728869373661</v>
+        <v>17.74123683333696</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.23546691122862</v>
+        <v>16.93128613512223</v>
       </c>
       <c r="C15">
-        <v>14.23724374938626</v>
+        <v>7.660053114822583</v>
       </c>
       <c r="D15">
-        <v>4.290354820302718</v>
+        <v>5.839809776395155</v>
       </c>
       <c r="E15">
-        <v>6.414893658861249</v>
+        <v>7.916322718047786</v>
       </c>
       <c r="F15">
-        <v>36.07971660594834</v>
+        <v>22.62631738306172</v>
       </c>
       <c r="G15">
-        <v>2.060276955711858</v>
+        <v>2.087497149930666</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.38156875329389</v>
+        <v>13.40071971348993</v>
       </c>
       <c r="L15">
-        <v>6.581229287549778</v>
+        <v>6.598758442222707</v>
       </c>
       <c r="M15">
-        <v>14.82454021697657</v>
+        <v>11.28888961820107</v>
       </c>
       <c r="N15">
-        <v>12.77760336174192</v>
+        <v>12.54787196919066</v>
       </c>
       <c r="O15">
-        <v>27.63043374137397</v>
+        <v>17.72530034922125</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.33315837520388</v>
+        <v>16.37651256472421</v>
       </c>
       <c r="C16">
-        <v>13.80583079150823</v>
+        <v>7.63331288523344</v>
       </c>
       <c r="D16">
-        <v>4.35111971119609</v>
+        <v>5.753936629516598</v>
       </c>
       <c r="E16">
-        <v>6.439599686518218</v>
+        <v>7.900529582172592</v>
       </c>
       <c r="F16">
-        <v>35.21820539928521</v>
+        <v>22.32820661818193</v>
       </c>
       <c r="G16">
-        <v>2.06658913180404</v>
+        <v>2.090680920171296</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.64910810811187</v>
+        <v>13.00647826956289</v>
       </c>
       <c r="L16">
-        <v>6.508694175068815</v>
+        <v>6.52702432636501</v>
       </c>
       <c r="M16">
-        <v>14.45908456672088</v>
+        <v>11.05853590483376</v>
       </c>
       <c r="N16">
-        <v>12.94443138271326</v>
+        <v>12.69249978958332</v>
       </c>
       <c r="O16">
-        <v>27.0800808234573</v>
+        <v>17.63859208663825</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.7687908274803</v>
+        <v>16.02782674376065</v>
       </c>
       <c r="C17">
-        <v>13.53638196324964</v>
+        <v>7.617011245771145</v>
       </c>
       <c r="D17">
-        <v>4.388214227838187</v>
+        <v>5.700517209219051</v>
       </c>
       <c r="E17">
-        <v>6.455114761190475</v>
+        <v>7.892008093008697</v>
       </c>
       <c r="F17">
-        <v>34.69182020807272</v>
+        <v>22.14900209838445</v>
       </c>
       <c r="G17">
-        <v>2.070480924596838</v>
+        <v>2.092654481815681</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.1905796678422</v>
+        <v>12.75902320001646</v>
       </c>
       <c r="L17">
-        <v>6.464992610041745</v>
+        <v>6.483490002626205</v>
       </c>
       <c r="M17">
-        <v>14.2335005247259</v>
+        <v>10.91610545069657</v>
       </c>
       <c r="N17">
-        <v>13.04762725287853</v>
+        <v>12.78178875250782</v>
       </c>
       <c r="O17">
-        <v>26.74660757341682</v>
+        <v>17.58945051014219</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.44015063243662</v>
+        <v>15.82418668591261</v>
       </c>
       <c r="C18">
-        <v>13.37962007282639</v>
+        <v>7.607672529037372</v>
       </c>
       <c r="D18">
-        <v>4.409494978180447</v>
+        <v>5.669525402435906</v>
       </c>
       <c r="E18">
-        <v>6.464168711222983</v>
+        <v>7.887529153727693</v>
       </c>
       <c r="F18">
-        <v>34.38985171172324</v>
+        <v>22.04728921454793</v>
       </c>
       <c r="G18">
-        <v>2.072727393023318</v>
+        <v>2.093797320484092</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.92341947521699</v>
+        <v>12.61463185066262</v>
       </c>
       <c r="L18">
-        <v>6.440147280596905</v>
+        <v>6.458628274981848</v>
       </c>
       <c r="M18">
-        <v>14.10325655601213</v>
+        <v>10.83379627395088</v>
       </c>
       <c r="N18">
-        <v>13.10729724309143</v>
+        <v>12.83336148375419</v>
       </c>
       <c r="O18">
-        <v>26.55631978404928</v>
+        <v>17.56264663942282</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.32818183081244</v>
+        <v>15.75470622975338</v>
       </c>
       <c r="C19">
-        <v>13.32623525510534</v>
+        <v>7.604517037637342</v>
       </c>
       <c r="D19">
-        <v>4.416691926889659</v>
+        <v>5.658986874128737</v>
       </c>
       <c r="E19">
-        <v>6.467256412089048</v>
+        <v>7.88608458960554</v>
       </c>
       <c r="F19">
-        <v>34.28774871326142</v>
+        <v>22.01308558391499</v>
       </c>
       <c r="G19">
-        <v>2.073489462806209</v>
+        <v>2.094185606148438</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.83237043682701</v>
+        <v>12.56538905002651</v>
       </c>
       <c r="L19">
-        <v>6.431784827759376</v>
+        <v>6.450241535618365</v>
       </c>
       <c r="M19">
-        <v>14.05907515782715</v>
+        <v>10.80586364846176</v>
       </c>
       <c r="N19">
-        <v>13.12755464846852</v>
+        <v>12.85086103909703</v>
       </c>
       <c r="O19">
-        <v>26.49215171543581</v>
+        <v>17.55381958463437</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.82928479913809</v>
+        <v>16.06526388173222</v>
       </c>
       <c r="C20">
-        <v>13.56524923262832</v>
+        <v>7.618742693179802</v>
       </c>
       <c r="D20">
-        <v>4.38427141446744</v>
+        <v>5.706231486901607</v>
       </c>
       <c r="E20">
-        <v>6.453449653958764</v>
+        <v>7.892871356667391</v>
       </c>
       <c r="F20">
-        <v>34.74777301689867</v>
+        <v>22.16793809818467</v>
       </c>
       <c r="G20">
-        <v>2.070065826123987</v>
+        <v>2.09244360036614</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.2397443487525</v>
+        <v>12.78557852927119</v>
       </c>
       <c r="L20">
-        <v>6.46961459270296</v>
+        <v>6.48810597927187</v>
       </c>
       <c r="M20">
-        <v>14.25756587287391</v>
+        <v>10.93130800437474</v>
       </c>
       <c r="N20">
-        <v>13.03660936770019</v>
+        <v>12.7722616181887</v>
       </c>
       <c r="O20">
-        <v>26.78194921532561</v>
+        <v>17.59452986921485</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.46512052469293</v>
+        <v>17.07194987571941</v>
       </c>
       <c r="C21">
-        <v>14.34716385569908</v>
+        <v>7.666988799367802</v>
       </c>
       <c r="D21">
-        <v>4.274599672422591</v>
+        <v>5.861747970771773</v>
       </c>
       <c r="E21">
-        <v>6.408627480515131</v>
+        <v>7.920766297735761</v>
       </c>
       <c r="F21">
-        <v>36.30279305114922</v>
+        <v>22.70441241473006</v>
       </c>
       <c r="G21">
-        <v>2.058652572618278</v>
+        <v>2.086681315460866</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.56787765956653</v>
+        <v>13.50077700769824</v>
       </c>
       <c r="L21">
-        <v>6.600204474059936</v>
+        <v>6.617421130136236</v>
       </c>
       <c r="M21">
-        <v>14.93420707119926</v>
+        <v>11.34799954378635</v>
       </c>
       <c r="N21">
-        <v>12.73479458537376</v>
+        <v>12.51069922539068</v>
       </c>
       <c r="O21">
-        <v>27.77381664339768</v>
+        <v>17.74896144548651</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.49947091026803</v>
+        <v>17.70275959183481</v>
       </c>
       <c r="C22">
-        <v>14.84281107355099</v>
+        <v>7.698858840749367</v>
       </c>
       <c r="D22">
-        <v>4.202164164100992</v>
+        <v>5.960908051156824</v>
       </c>
       <c r="E22">
-        <v>6.380531662406941</v>
+        <v>7.942896406287437</v>
       </c>
       <c r="F22">
-        <v>37.32600691217417</v>
+        <v>23.0669396608262</v>
       </c>
       <c r="G22">
-        <v>2.05124586411782</v>
+        <v>2.082979689133641</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.40647683821956</v>
+        <v>13.94992840031908</v>
       </c>
       <c r="L22">
-        <v>6.688188426099242</v>
+        <v>6.703426704195385</v>
       </c>
       <c r="M22">
-        <v>15.51233780034322</v>
+        <v>11.61641726801806</v>
       </c>
       <c r="N22">
-        <v>12.54032636604958</v>
+        <v>12.34149004594822</v>
       </c>
       <c r="O22">
-        <v>28.43581127920559</v>
+        <v>17.86348334114186</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.95054013111289</v>
+        <v>17.36854826665019</v>
       </c>
       <c r="C23">
-        <v>14.57965537359925</v>
+        <v>7.681817988004584</v>
       </c>
       <c r="D23">
-        <v>4.240907707648719</v>
+        <v>5.908216126458687</v>
       </c>
       <c r="E23">
-        <v>6.395415160539164</v>
+        <v>7.930721743677954</v>
       </c>
       <c r="F23">
-        <v>36.77926131264545</v>
+        <v>22.87237248780012</v>
       </c>
       <c r="G23">
-        <v>2.055195129363995</v>
+        <v>2.084949637940691</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.96153581908236</v>
+        <v>13.71187447349494</v>
       </c>
       <c r="L23">
-        <v>6.640985801430434</v>
+        <v>6.657392015900343</v>
       </c>
       <c r="M23">
-        <v>15.20558436007895</v>
+        <v>11.4735366240472</v>
       </c>
       <c r="N23">
-        <v>12.64386258654369</v>
+        <v>12.43165061355589</v>
       </c>
       <c r="O23">
-        <v>28.08121622793982</v>
+        <v>17.80108965371062</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.80194849933918</v>
+        <v>16.04834844787673</v>
       </c>
       <c r="C24">
-        <v>13.55220411427448</v>
+        <v>7.617959802080778</v>
       </c>
       <c r="D24">
-        <v>4.386054098890191</v>
+        <v>5.703648933710914</v>
       </c>
       <c r="E24">
-        <v>6.454202031571457</v>
+        <v>7.892479767938483</v>
       </c>
       <c r="F24">
-        <v>34.72247470122332</v>
+        <v>22.15937303701237</v>
       </c>
       <c r="G24">
-        <v>2.07025346383157</v>
+        <v>2.092538914246116</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.21752805363265</v>
+        <v>12.77357948817418</v>
       </c>
       <c r="L24">
-        <v>6.467524124909906</v>
+        <v>6.486018575820532</v>
       </c>
       <c r="M24">
-        <v>14.24668764664199</v>
+        <v>10.92443624510214</v>
       </c>
       <c r="N24">
-        <v>13.04158949019235</v>
+        <v>12.77656808816022</v>
       </c>
       <c r="O24">
-        <v>26.76596680544138</v>
+        <v>17.59222898645258</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.34122260310377</v>
+        <v>14.5061494732218</v>
       </c>
       <c r="C25">
-        <v>12.37564611492988</v>
+        <v>7.550513742819458</v>
       </c>
       <c r="D25">
-        <v>4.540634994255645</v>
+        <v>5.472885438085602</v>
       </c>
       <c r="E25">
-        <v>6.52257273235571</v>
+        <v>7.867294559261344</v>
       </c>
       <c r="F25">
-        <v>32.53486521995587</v>
+        <v>21.44240603205721</v>
       </c>
       <c r="G25">
-        <v>2.086811393380862</v>
+        <v>2.101021688887815</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.20477868563346</v>
+        <v>11.68265594392777</v>
       </c>
       <c r="L25">
-        <v>6.291516472289779</v>
+        <v>6.308030118247776</v>
       </c>
       <c r="M25">
-        <v>13.28823088924907</v>
+        <v>10.31772004452166</v>
       </c>
       <c r="N25">
-        <v>13.48267300981159</v>
+        <v>13.15697693803802</v>
       </c>
       <c r="O25">
-        <v>25.405354578942</v>
+        <v>17.42242117899454</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.35341854327153</v>
+        <v>12.38366753225093</v>
       </c>
       <c r="C2">
-        <v>7.502065876147753</v>
+        <v>8.549481669914796</v>
       </c>
       <c r="D2">
-        <v>5.29492896186673</v>
+        <v>5.459289904996261</v>
       </c>
       <c r="E2">
-        <v>7.861797116312233</v>
+        <v>8.130353752311228</v>
       </c>
       <c r="F2">
-        <v>20.96006961769497</v>
+        <v>17.35345133436326</v>
       </c>
       <c r="G2">
-        <v>2.107544605239478</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>21.34968634947591</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.882388045238889</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.916014281381438</v>
       </c>
       <c r="K2">
-        <v>10.81138873607038</v>
+        <v>14.81606925222112</v>
       </c>
       <c r="L2">
-        <v>6.183366007855216</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>9.861612721246276</v>
+        <v>10.75986436797008</v>
       </c>
       <c r="N2">
-        <v>13.44525002080203</v>
+        <v>6.230345033429462</v>
       </c>
       <c r="O2">
-        <v>17.34172002906405</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.390578858153177</v>
+      </c>
+      <c r="P2">
+        <v>12.79589114997029</v>
+      </c>
+      <c r="Q2">
+        <v>14.33685486657789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.54365782747848</v>
+        <v>11.56933167697912</v>
       </c>
       <c r="C3">
-        <v>7.469983130192964</v>
+        <v>8.434317345396209</v>
       </c>
       <c r="D3">
-        <v>5.169689100768188</v>
+        <v>5.243867555804792</v>
       </c>
       <c r="E3">
-        <v>7.865815218791139</v>
+        <v>8.127695107653672</v>
       </c>
       <c r="F3">
-        <v>20.66179385613064</v>
+        <v>17.13225879405489</v>
       </c>
       <c r="G3">
-        <v>2.112148381617373</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>21.14466320540201</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.024677009729137</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.960554488281124</v>
       </c>
       <c r="K3">
-        <v>10.17862157670715</v>
+        <v>14.90769507622548</v>
       </c>
       <c r="L3">
-        <v>6.103102859027689</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.548490670189416</v>
+        <v>10.20811734618252</v>
       </c>
       <c r="N3">
-        <v>13.64617883135881</v>
+        <v>6.148114039998458</v>
       </c>
       <c r="O3">
-        <v>17.31287979610381</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.065761126225652</v>
+      </c>
+      <c r="P3">
+        <v>12.93543658530922</v>
+      </c>
+      <c r="Q3">
+        <v>14.35166604315304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.02317677628515</v>
+        <v>11.0368261966043</v>
       </c>
       <c r="C4">
-        <v>7.45065427896818</v>
+        <v>8.363032541148694</v>
       </c>
       <c r="D4">
-        <v>5.0906494572216</v>
+        <v>5.106579385800765</v>
       </c>
       <c r="E4">
-        <v>7.87196932448815</v>
+        <v>8.1285453411126</v>
       </c>
       <c r="F4">
-        <v>20.49274765582473</v>
+        <v>17.00420650614766</v>
       </c>
       <c r="G4">
-        <v>2.11506864628493</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>21.03050041736883</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.116292405941425</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.990931677884632</v>
       </c>
       <c r="K4">
-        <v>9.769377692973519</v>
+        <v>14.96873583995653</v>
       </c>
       <c r="L4">
-        <v>6.055978405867155</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>9.354960058524741</v>
+        <v>9.852681618684015</v>
       </c>
       <c r="N4">
-        <v>13.77243678439999</v>
+        <v>6.100214640635842</v>
       </c>
       <c r="O4">
-        <v>17.30730149092498</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>8.862199646449593</v>
+      </c>
+      <c r="P4">
+        <v>13.02329790817788</v>
+      </c>
+      <c r="Q4">
+        <v>14.36724945681602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.8053614744707</v>
+        <v>10.80705667333373</v>
       </c>
       <c r="C5">
-        <v>7.442870898855242</v>
+        <v>8.33639825328795</v>
       </c>
       <c r="D5">
-        <v>5.057925547536644</v>
+        <v>5.050502505244708</v>
       </c>
       <c r="E5">
-        <v>7.87538454953297</v>
+        <v>8.128163478424083</v>
       </c>
       <c r="F5">
-        <v>20.42739391065274</v>
+        <v>16.9491870114061</v>
       </c>
       <c r="G5">
-        <v>2.116282640831354</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>20.97858207792721</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.157495151744726</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.00278990855178</v>
       </c>
       <c r="K5">
-        <v>9.597432403746389</v>
+        <v>14.99118518877914</v>
       </c>
       <c r="L5">
-        <v>6.037327955898093</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>9.275891031847525</v>
+        <v>9.703843621269527</v>
       </c>
       <c r="N5">
-        <v>13.82463358204934</v>
+        <v>6.082048104593299</v>
       </c>
       <c r="O5">
-        <v>17.30798426250085</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>8.777342228114438</v>
+      </c>
+      <c r="P5">
+        <v>13.0595376662845</v>
+      </c>
+      <c r="Q5">
+        <v>14.3719160745681</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.76885304816702</v>
+        <v>10.76282557130178</v>
       </c>
       <c r="C6">
-        <v>7.441584116126173</v>
+        <v>8.33512249172739</v>
       </c>
       <c r="D6">
-        <v>5.052461418409268</v>
+        <v>5.042452817313251</v>
       </c>
       <c r="E6">
-        <v>7.876005868363997</v>
+        <v>8.126491287549028</v>
       </c>
       <c r="F6">
-        <v>20.41675488206099</v>
+        <v>16.93428751441154</v>
       </c>
       <c r="G6">
-        <v>2.116485683703603</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>20.95996829131428</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.167995718824122</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.003253863693672</v>
       </c>
       <c r="K6">
-        <v>9.568569774623112</v>
+        <v>14.99058092848653</v>
       </c>
       <c r="L6">
-        <v>6.034264759279155</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>9.262752920839866</v>
+        <v>9.679019618499792</v>
       </c>
       <c r="N6">
-        <v>13.83334641889723</v>
+        <v>6.07991462583403</v>
       </c>
       <c r="O6">
-        <v>17.30827338247434</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>8.761985863084037</v>
+      </c>
+      <c r="P6">
+        <v>13.06544708933955</v>
+      </c>
+      <c r="Q6">
+        <v>14.36878223786352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.02026217131114</v>
+        <v>11.01888364612327</v>
       </c>
       <c r="C7">
-        <v>7.450548931546078</v>
+        <v>8.371304678335525</v>
       </c>
       <c r="D7">
-        <v>5.090210181919887</v>
+        <v>5.109434573701641</v>
       </c>
       <c r="E7">
-        <v>7.872011735646009</v>
+        <v>8.124049344850912</v>
       </c>
       <c r="F7">
-        <v>20.49185198577221</v>
+        <v>16.98745884314518</v>
       </c>
       <c r="G7">
-        <v>2.115084921037606</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>21.00210756279436</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.126352883873835</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.986860277592426</v>
       </c>
       <c r="K7">
-        <v>9.767079675211514</v>
+        <v>14.95701011760167</v>
       </c>
       <c r="L7">
-        <v>6.055724626503115</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>9.353894371653622</v>
+        <v>9.851058735551579</v>
       </c>
       <c r="N7">
-        <v>13.77313768396451</v>
+        <v>6.102256001119932</v>
       </c>
       <c r="O7">
-        <v>17.3072988560682</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>8.857772711639617</v>
+      </c>
+      <c r="P7">
+        <v>13.0234435950057</v>
+      </c>
+      <c r="Q7">
+        <v>14.35638290391368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.07911908629195</v>
+        <v>12.09145242114068</v>
       </c>
       <c r="C8">
-        <v>7.490927038922074</v>
+        <v>8.521408356613415</v>
       </c>
       <c r="D8">
-        <v>5.252204669196721</v>
+        <v>5.390675376444151</v>
       </c>
       <c r="E8">
-        <v>7.862405492064009</v>
+        <v>8.123012298580361</v>
       </c>
       <c r="F8">
-        <v>20.85429530288423</v>
+        <v>17.2547793181173</v>
       </c>
       <c r="G8">
-        <v>2.10911284916979</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>21.24040909531806</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.942751684780559</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.925156132561163</v>
       </c>
       <c r="K8">
-        <v>10.59752880700539</v>
+        <v>14.83075282780084</v>
       </c>
       <c r="L8">
-        <v>6.155250211281167</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>9.753979588249816</v>
+        <v>10.57359833130134</v>
       </c>
       <c r="N8">
-        <v>13.51394325950191</v>
+        <v>6.204434437117859</v>
       </c>
       <c r="O8">
-        <v>17.32920235905589</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.27530755487002</v>
+      </c>
+      <c r="P8">
+        <v>12.84331151904897</v>
+      </c>
+      <c r="Q8">
+        <v>14.32619739335914</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.04160790691949</v>
+        <v>13.96200889199515</v>
       </c>
       <c r="C9">
-        <v>7.57304366591674</v>
+        <v>8.795767033169286</v>
       </c>
       <c r="D9">
-        <v>5.551915079452883</v>
+        <v>5.894718887146182</v>
       </c>
       <c r="E9">
-        <v>7.873699664771568</v>
+        <v>8.148954170032031</v>
       </c>
       <c r="F9">
-        <v>21.67688095794678</v>
+        <v>17.86744514363019</v>
       </c>
       <c r="G9">
-        <v>2.09812263180317</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>21.85045449674091</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.600498741395785</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.836452271956064</v>
       </c>
       <c r="K9">
-        <v>12.06070019153471</v>
+        <v>14.64385347729448</v>
       </c>
       <c r="L9">
-        <v>6.367026037838534</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>10.52377310825901</v>
+        <v>11.85480822914019</v>
       </c>
       <c r="N9">
-        <v>13.02762872163865</v>
+        <v>6.420714449309505</v>
       </c>
       <c r="O9">
-        <v>17.47250262672421</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.06210186601357</v>
+      </c>
+      <c r="P9">
+        <v>12.50731852285211</v>
+      </c>
+      <c r="Q9">
+        <v>14.33984303155087</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.41588317939522</v>
+        <v>15.17620901003342</v>
       </c>
       <c r="C10">
-        <v>7.635178115209482</v>
+        <v>8.999377618482731</v>
       </c>
       <c r="D10">
-        <v>5.75999567875721</v>
+        <v>6.239752751357834</v>
       </c>
       <c r="E10">
-        <v>7.901559651314134</v>
+        <v>8.17841960480672</v>
       </c>
       <c r="F10">
-        <v>22.34883880767407</v>
+        <v>18.34512879114869</v>
       </c>
       <c r="G10">
-        <v>2.090456752312404</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>22.34378165205178</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.592333837884611</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.785344494940666</v>
       </c>
       <c r="K10">
-        <v>13.03443547445856</v>
+        <v>14.52629131063448</v>
       </c>
       <c r="L10">
-        <v>6.532015695197995</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>11.07473406469613</v>
+        <v>12.71109921758347</v>
       </c>
       <c r="N10">
-        <v>12.68233995728511</v>
+        <v>6.591862683766252</v>
       </c>
       <c r="O10">
-        <v>17.64439948073935</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>10.61002034757852</v>
+      </c>
+      <c r="P10">
+        <v>12.27049630239245</v>
+      </c>
+      <c r="Q10">
+        <v>14.37967876057933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.00830423624726</v>
+        <v>15.67818172018238</v>
       </c>
       <c r="C11">
-        <v>7.663842870383582</v>
+        <v>9.105976403875026</v>
       </c>
       <c r="D11">
-        <v>5.851813614654682</v>
+        <v>6.395534199099641</v>
       </c>
       <c r="E11">
-        <v>7.918733630643928</v>
+        <v>8.187516232762823</v>
       </c>
       <c r="F11">
-        <v>22.66895213636535</v>
+        <v>18.54594931311416</v>
       </c>
       <c r="G11">
-        <v>2.087050884829009</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>22.53938103711763</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.700739251560161</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.759002793609136</v>
       </c>
       <c r="K11">
-        <v>13.45549977423256</v>
+        <v>14.45918550861112</v>
       </c>
       <c r="L11">
-        <v>6.608953345212898</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>11.32121982236272</v>
+        <v>13.08227942204273</v>
       </c>
       <c r="N11">
-        <v>12.52754385418024</v>
+        <v>6.675303684702811</v>
       </c>
       <c r="O11">
-        <v>17.73817123104251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.84753714217041</v>
+      </c>
+      <c r="P11">
+        <v>12.16529629278797</v>
+      </c>
+      <c r="Q11">
+        <v>14.38861260228482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.22798447740626</v>
+        <v>15.8732256963258</v>
       </c>
       <c r="C12">
-        <v>7.674755576256263</v>
+        <v>9.138620879155717</v>
       </c>
       <c r="D12">
-        <v>5.886158854660715</v>
+        <v>6.4509418291189</v>
       </c>
       <c r="E12">
-        <v>7.925904405483243</v>
+        <v>8.195173809478012</v>
       </c>
       <c r="F12">
-        <v>22.79221796911147</v>
+        <v>18.63576323013147</v>
       </c>
       <c r="G12">
-        <v>2.085772251326646</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>22.63766632313034</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.738123131873835</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.753225794365791</v>
       </c>
       <c r="K12">
-        <v>13.61181128046417</v>
+        <v>14.44510682714598</v>
       </c>
       <c r="L12">
-        <v>6.638344755641679</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>11.41389152782423</v>
+        <v>13.2198295312341</v>
       </c>
       <c r="N12">
-        <v>12.46922628252084</v>
+        <v>6.705376039504908</v>
       </c>
       <c r="O12">
-        <v>17.77600597685923</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>10.93883977233724</v>
+      </c>
+      <c r="P12">
+        <v>12.12557584032202</v>
+      </c>
+      <c r="Q12">
+        <v>14.40249440837368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.18087867333785</v>
+        <v>15.83331341131753</v>
       </c>
       <c r="C13">
-        <v>7.672402739570125</v>
+        <v>9.130048003621454</v>
       </c>
       <c r="D13">
-        <v>5.878781096848939</v>
+        <v>6.438518546824032</v>
       </c>
       <c r="E13">
-        <v>7.924330049704118</v>
+        <v>8.194268419305484</v>
       </c>
       <c r="F13">
-        <v>22.76557997043988</v>
+        <v>18.61891470558759</v>
       </c>
       <c r="G13">
-        <v>2.086047144548505</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>22.62087061389733</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.729355647721345</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.755176092176459</v>
       </c>
       <c r="K13">
-        <v>13.5782860477882</v>
+        <v>14.45019634138017</v>
       </c>
       <c r="L13">
-        <v>6.632003586772956</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>11.39396370662087</v>
+        <v>13.1902733732075</v>
       </c>
       <c r="N13">
-        <v>12.48177310552408</v>
+        <v>6.698524218865325</v>
       </c>
       <c r="O13">
-        <v>17.76775283132836</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>10.91971347901914</v>
+      </c>
+      <c r="P13">
+        <v>12.13407177186036</v>
+      </c>
+      <c r="Q13">
+        <v>14.40130864881658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.02647048720102</v>
+        <v>15.69512947220121</v>
       </c>
       <c r="C14">
-        <v>7.664739499160389</v>
+        <v>9.108005927509678</v>
       </c>
       <c r="D14">
-        <v>5.854647805863876</v>
+        <v>6.399884186266561</v>
       </c>
       <c r="E14">
-        <v>7.919310084513471</v>
+        <v>8.188462062064007</v>
       </c>
       <c r="F14">
-        <v>22.67905246615011</v>
+        <v>18.5544006990637</v>
       </c>
       <c r="G14">
-        <v>2.086945472135302</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>22.54932820856157</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.703500576247366</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.758826948379349</v>
       </c>
       <c r="K14">
-        <v>13.46842238729175</v>
+        <v>14.45890014397442</v>
       </c>
       <c r="L14">
-        <v>6.611366326369193</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>11.32885771827358</v>
+        <v>13.09362747872369</v>
       </c>
       <c r="N14">
-        <v>12.52274017392381</v>
+        <v>6.677617448573356</v>
       </c>
       <c r="O14">
-        <v>17.74123683333696</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.85527920405093</v>
+      </c>
+      <c r="P14">
+        <v>12.16200416613891</v>
+      </c>
+      <c r="Q14">
+        <v>14.3905205334243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.93128613512223</v>
+        <v>15.60610502403505</v>
       </c>
       <c r="C15">
-        <v>7.660053114822583</v>
+        <v>9.097551370381677</v>
       </c>
       <c r="D15">
-        <v>5.839809776395155</v>
+        <v>6.377157551858903</v>
       </c>
       <c r="E15">
-        <v>7.916322718047786</v>
+        <v>8.18345548869994</v>
       </c>
       <c r="F15">
-        <v>22.62631738306172</v>
+        <v>18.50997930367448</v>
       </c>
       <c r="G15">
-        <v>2.087497149930666</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>22.49692003592153</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.689194906083472</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.759695903437839</v>
       </c>
       <c r="K15">
-        <v>13.40071971348993</v>
+        <v>14.46022043522937</v>
       </c>
       <c r="L15">
-        <v>6.598758442222707</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>11.28888961820107</v>
+        <v>13.03418072318809</v>
       </c>
       <c r="N15">
-        <v>12.54787196919066</v>
+        <v>6.665568157493664</v>
       </c>
       <c r="O15">
-        <v>17.72530034922125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.81469636558839</v>
+      </c>
+      <c r="P15">
+        <v>12.17923333699016</v>
+      </c>
+      <c r="Q15">
+        <v>14.38040442000318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.37651256472421</v>
+        <v>15.11022570074538</v>
       </c>
       <c r="C16">
-        <v>7.63331288523344</v>
+        <v>9.018065097535256</v>
       </c>
       <c r="D16">
-        <v>5.753936629516598</v>
+        <v>6.238466959450085</v>
       </c>
       <c r="E16">
-        <v>7.900529582172592</v>
+        <v>8.165173190021809</v>
       </c>
       <c r="F16">
-        <v>22.32820661818193</v>
+        <v>18.28933500054258</v>
       </c>
       <c r="G16">
-        <v>2.090680920171296</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>22.25625409036142</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.59723443257826</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.774989512050043</v>
       </c>
       <c r="K16">
-        <v>13.00647826956289</v>
+        <v>14.4959748723145</v>
       </c>
       <c r="L16">
-        <v>6.52702432636501</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>11.05853590483376</v>
+        <v>12.68738520282947</v>
       </c>
       <c r="N16">
-        <v>12.69249978958332</v>
+        <v>6.592561868230949</v>
       </c>
       <c r="O16">
-        <v>17.63859208663825</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.58606840708159</v>
+      </c>
+      <c r="P16">
+        <v>12.27797048055349</v>
+      </c>
+      <c r="Q16">
+        <v>14.34825218477813</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.02782674376065</v>
+        <v>14.79755880256914</v>
       </c>
       <c r="C17">
-        <v>7.617011245771145</v>
+        <v>8.969104273936431</v>
       </c>
       <c r="D17">
-        <v>5.700517209219051</v>
+        <v>6.151798913927746</v>
       </c>
       <c r="E17">
-        <v>7.892008093008697</v>
+        <v>8.154730738423591</v>
       </c>
       <c r="F17">
-        <v>22.14900209838445</v>
+        <v>18.1558826846606</v>
       </c>
       <c r="G17">
-        <v>2.092654481815681</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>22.11205777488392</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.540517102579949</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.78539633691789</v>
       </c>
       <c r="K17">
-        <v>12.75902320001646</v>
+        <v>14.51962810690748</v>
       </c>
       <c r="L17">
-        <v>6.483490002626205</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>10.91610545069657</v>
+        <v>12.46979080278157</v>
       </c>
       <c r="N17">
-        <v>12.78178875250782</v>
+        <v>6.548313611628355</v>
       </c>
       <c r="O17">
-        <v>17.58945051014219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.44392219304867</v>
+      </c>
+      <c r="P17">
+        <v>12.33904317664652</v>
+      </c>
+      <c r="Q17">
+        <v>14.33077304486902</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.82418668591261</v>
+        <v>14.62475367430364</v>
       </c>
       <c r="C18">
-        <v>7.607672529037372</v>
+        <v>8.933008996706262</v>
       </c>
       <c r="D18">
-        <v>5.669525402435906</v>
+        <v>6.098587663620362</v>
       </c>
       <c r="E18">
-        <v>7.887529153727693</v>
+        <v>8.15286605761937</v>
       </c>
       <c r="F18">
-        <v>22.04728921454793</v>
+        <v>18.09296242496666</v>
       </c>
       <c r="G18">
-        <v>2.093797320484092</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>22.05334414687316</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.502932834064961</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.795433361186118</v>
       </c>
       <c r="K18">
-        <v>12.61463185066262</v>
+        <v>14.54437563527415</v>
       </c>
       <c r="L18">
-        <v>6.458628274981848</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>10.83379627395088</v>
+        <v>12.34257445135397</v>
       </c>
       <c r="N18">
-        <v>12.83336148375419</v>
+        <v>6.521192588734563</v>
       </c>
       <c r="O18">
-        <v>17.56264663942282</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>10.3640470146894</v>
+      </c>
+      <c r="P18">
+        <v>12.37422405308623</v>
+      </c>
+      <c r="Q18">
+        <v>14.33095032710095</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.75470622975338</v>
+        <v>14.55789345056516</v>
       </c>
       <c r="C19">
-        <v>7.604517037637342</v>
+        <v>8.926829061631363</v>
       </c>
       <c r="D19">
-        <v>5.658986874128737</v>
+        <v>6.082617737542209</v>
       </c>
       <c r="E19">
-        <v>7.88608458960554</v>
+        <v>8.149306679916918</v>
       </c>
       <c r="F19">
-        <v>22.01308558391499</v>
+        <v>18.06167103529692</v>
       </c>
       <c r="G19">
-        <v>2.094185606148438</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>22.01599319583247</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.516934028078873</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.796054702221891</v>
       </c>
       <c r="K19">
-        <v>12.56538905002651</v>
+        <v>14.54474016757848</v>
       </c>
       <c r="L19">
-        <v>6.450241535618365</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>10.80586364846176</v>
+        <v>12.29941892691226</v>
       </c>
       <c r="N19">
-        <v>12.85086103909703</v>
+        <v>6.513489924108276</v>
       </c>
       <c r="O19">
-        <v>17.55381958463437</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>10.33492188966469</v>
+      </c>
+      <c r="P19">
+        <v>12.38627215916099</v>
+      </c>
+      <c r="Q19">
+        <v>14.32388394994793</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.06526388173222</v>
+        <v>14.83195269203053</v>
       </c>
       <c r="C20">
-        <v>7.618742693179802</v>
+        <v>8.973706881456934</v>
       </c>
       <c r="D20">
-        <v>5.706231486901607</v>
+        <v>6.160867775769322</v>
       </c>
       <c r="E20">
-        <v>7.892871356667391</v>
+        <v>8.156115578704782</v>
       </c>
       <c r="F20">
-        <v>22.16793809818467</v>
+        <v>18.17104013596411</v>
       </c>
       <c r="G20">
-        <v>2.09244360036614</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>22.1290700423864</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.546182709125814</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.784538945031665</v>
       </c>
       <c r="K20">
-        <v>12.78557852927119</v>
+        <v>14.51787174306288</v>
       </c>
       <c r="L20">
-        <v>6.48810597927187</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>10.93130800437474</v>
+        <v>12.49311545034995</v>
       </c>
       <c r="N20">
-        <v>12.7722616181887</v>
+        <v>6.552856500690897</v>
       </c>
       <c r="O20">
-        <v>17.59452986921485</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>10.45932299661499</v>
+      </c>
+      <c r="P20">
+        <v>12.33251064747862</v>
+      </c>
+      <c r="Q20">
+        <v>14.3332877212213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.07194987571941</v>
+        <v>15.72523136760874</v>
       </c>
       <c r="C21">
-        <v>7.666988799367802</v>
+        <v>9.123174005137621</v>
       </c>
       <c r="D21">
-        <v>5.861747970771773</v>
+        <v>6.414238975085564</v>
       </c>
       <c r="E21">
-        <v>7.920766297735761</v>
+        <v>8.185880181138851</v>
       </c>
       <c r="F21">
-        <v>22.70441241473006</v>
+        <v>18.55906483990083</v>
       </c>
       <c r="G21">
-        <v>2.086681315460866</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>22.54528059785948</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.715546103636122</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.753637297464408</v>
       </c>
       <c r="K21">
-        <v>13.50077700769824</v>
+        <v>14.44455728457829</v>
       </c>
       <c r="L21">
-        <v>6.617421130136236</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>11.34799954378635</v>
+        <v>13.12239384102199</v>
       </c>
       <c r="N21">
-        <v>12.51069922539068</v>
+        <v>6.685786100256585</v>
       </c>
       <c r="O21">
-        <v>17.74896144548651</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>10.87149648960505</v>
+      </c>
+      <c r="P21">
+        <v>12.15404546081923</v>
+      </c>
+      <c r="Q21">
+        <v>14.38322471384746</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.70275959183481</v>
+        <v>16.2949713217764</v>
       </c>
       <c r="C22">
-        <v>7.698858840749367</v>
+        <v>9.209186717165062</v>
       </c>
       <c r="D22">
-        <v>5.960908051156824</v>
+        <v>6.570792603740314</v>
       </c>
       <c r="E22">
-        <v>7.942896406287437</v>
+        <v>8.213315431111294</v>
       </c>
       <c r="F22">
-        <v>23.0669396608262</v>
+        <v>18.83679879962237</v>
       </c>
       <c r="G22">
-        <v>2.082979689133641</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>22.86023010032992</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.819420576068421</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.742092100942903</v>
       </c>
       <c r="K22">
-        <v>13.94992840031908</v>
+        <v>14.41736738948033</v>
       </c>
       <c r="L22">
-        <v>6.703426704195385</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>11.61641726801806</v>
+        <v>13.51734372766601</v>
       </c>
       <c r="N22">
-        <v>12.34149004594822</v>
+        <v>6.771767994687389</v>
       </c>
       <c r="O22">
-        <v>17.86348334114186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.13790049900642</v>
+      </c>
+      <c r="P22">
+        <v>12.03869072610568</v>
+      </c>
+      <c r="Q22">
+        <v>14.43662395411066</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.36854826665019</v>
+        <v>16.00606635488036</v>
       </c>
       <c r="C23">
-        <v>7.681817988004584</v>
+        <v>9.15290251273793</v>
       </c>
       <c r="D23">
-        <v>5.908216126458687</v>
+        <v>6.48415125913461</v>
       </c>
       <c r="E23">
-        <v>7.930721743677954</v>
+        <v>8.203585505964421</v>
       </c>
       <c r="F23">
-        <v>22.87237248780012</v>
+        <v>18.70514116878172</v>
       </c>
       <c r="G23">
-        <v>2.084949637940691</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>22.72114717594903</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.759232893693465</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.752874449070765</v>
       </c>
       <c r="K23">
-        <v>13.71187447349494</v>
+        <v>14.44551944607101</v>
       </c>
       <c r="L23">
-        <v>6.657392015900343</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>11.4735366240472</v>
+        <v>13.3076509077801</v>
       </c>
       <c r="N23">
-        <v>12.43165061355589</v>
+        <v>6.723287189945235</v>
       </c>
       <c r="O23">
-        <v>17.80108965371062</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>10.99960758627631</v>
+      </c>
+      <c r="P23">
+        <v>12.09979310796904</v>
+      </c>
+      <c r="Q23">
+        <v>14.41997747016142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.04834844787673</v>
+        <v>14.83765211529435</v>
       </c>
       <c r="C24">
-        <v>7.617959802080778</v>
+        <v>8.955083282478451</v>
       </c>
       <c r="D24">
-        <v>5.703648933710914</v>
+        <v>6.150919282067948</v>
       </c>
       <c r="E24">
-        <v>7.892479767938483</v>
+        <v>8.163648728017368</v>
       </c>
       <c r="F24">
-        <v>22.15937303701237</v>
+        <v>18.19183045743402</v>
       </c>
       <c r="G24">
-        <v>2.092538914246116</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>22.1697624588084</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.534622541987162</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.792716976693024</v>
       </c>
       <c r="K24">
-        <v>12.77357948817418</v>
+        <v>14.54096045950326</v>
       </c>
       <c r="L24">
-        <v>6.486018575820532</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>10.92443624510214</v>
+        <v>12.48197330717152</v>
       </c>
       <c r="N24">
-        <v>12.77656808816022</v>
+        <v>6.54685481677747</v>
       </c>
       <c r="O24">
-        <v>17.59222898645258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>10.45773042389073</v>
+      </c>
+      <c r="P24">
+        <v>12.33515555289149</v>
+      </c>
+      <c r="Q24">
+        <v>14.35206328813686</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.5061494732218</v>
+        <v>13.46084101947677</v>
       </c>
       <c r="C25">
-        <v>7.550513742819458</v>
+        <v>8.737923064255325</v>
       </c>
       <c r="D25">
-        <v>5.472885438085602</v>
+        <v>5.768935247781445</v>
       </c>
       <c r="E25">
-        <v>7.867294559261344</v>
+        <v>8.131754597651041</v>
       </c>
       <c r="F25">
-        <v>21.44240603205721</v>
+        <v>17.66776541696413</v>
       </c>
       <c r="G25">
-        <v>2.101021688887815</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>21.62702101965979</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.707440378789194</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.850099960797793</v>
       </c>
       <c r="K25">
-        <v>11.68265594392777</v>
+        <v>14.66834267703782</v>
       </c>
       <c r="L25">
-        <v>6.308030118247776</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>10.31772004452166</v>
+        <v>11.52362119918972</v>
       </c>
       <c r="N25">
-        <v>13.15697693803802</v>
+        <v>6.364113316170037</v>
       </c>
       <c r="O25">
-        <v>17.42242117899454</v>
+        <v>9.848459157700423</v>
+      </c>
+      <c r="P25">
+        <v>12.59645130763445</v>
+      </c>
+      <c r="Q25">
+        <v>14.31065106795482</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.38366753225093</v>
+        <v>12.22641860797159</v>
       </c>
       <c r="C2">
-        <v>8.549481669914796</v>
+        <v>8.293710913168637</v>
       </c>
       <c r="D2">
-        <v>5.459289904996261</v>
+        <v>5.488257997391358</v>
       </c>
       <c r="E2">
-        <v>8.130353752311228</v>
+        <v>7.935905488509139</v>
       </c>
       <c r="F2">
-        <v>17.35345133436326</v>
+        <v>16.97565722457629</v>
       </c>
       <c r="G2">
-        <v>21.34968634947591</v>
+        <v>20.08716831351186</v>
       </c>
       <c r="I2">
-        <v>2.882388045238889</v>
+        <v>2.783182336178194</v>
       </c>
       <c r="J2">
-        <v>8.916014281381438</v>
+        <v>9.178781220936877</v>
       </c>
       <c r="K2">
-        <v>14.81606925222112</v>
+        <v>14.36741537225255</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.07181870875571</v>
       </c>
       <c r="M2">
-        <v>10.75986436797008</v>
+        <v>9.171247538040472</v>
       </c>
       <c r="N2">
-        <v>6.230345033429462</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.390578858153177</v>
+        <v>10.77834082190879</v>
       </c>
       <c r="P2">
-        <v>12.79589114997029</v>
+        <v>6.302004017222665</v>
       </c>
       <c r="Q2">
-        <v>14.33685486657789</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.295600072326799</v>
+      </c>
+      <c r="R2">
+        <v>12.698120951314</v>
+      </c>
+      <c r="S2">
+        <v>14.02978157841984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.56933167697912</v>
+        <v>11.45586308622512</v>
       </c>
       <c r="C3">
-        <v>8.434317345396209</v>
+        <v>8.116379052375937</v>
       </c>
       <c r="D3">
-        <v>5.243867555804792</v>
+        <v>5.256733880833692</v>
       </c>
       <c r="E3">
-        <v>8.127695107653672</v>
+        <v>7.940467298835843</v>
       </c>
       <c r="F3">
-        <v>17.13225879405489</v>
+        <v>16.78290760505838</v>
       </c>
       <c r="G3">
-        <v>21.14466320540201</v>
+        <v>19.95685334125889</v>
       </c>
       <c r="I3">
-        <v>3.024677009729137</v>
+        <v>2.910170219668639</v>
       </c>
       <c r="J3">
-        <v>8.960554488281124</v>
+        <v>9.197523841204756</v>
       </c>
       <c r="K3">
-        <v>14.90769507622548</v>
+        <v>14.47247500911963</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.22232177874918</v>
       </c>
       <c r="M3">
-        <v>10.20811734618252</v>
+        <v>9.206635358471907</v>
       </c>
       <c r="N3">
-        <v>6.148114039998458</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.065761126225652</v>
+        <v>10.22945363155796</v>
       </c>
       <c r="P3">
-        <v>12.93543658530922</v>
+        <v>6.215560223029952</v>
       </c>
       <c r="Q3">
-        <v>14.35166604315304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>8.973115720811064</v>
+      </c>
+      <c r="R3">
+        <v>12.82567656343221</v>
+      </c>
+      <c r="S3">
+        <v>14.06045113682052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.0368261966043</v>
+        <v>10.95198027447144</v>
       </c>
       <c r="C4">
-        <v>8.363032541148694</v>
+        <v>8.006778164612252</v>
       </c>
       <c r="D4">
-        <v>5.106579385800765</v>
+        <v>5.109092359735409</v>
       </c>
       <c r="E4">
-        <v>8.1285453411126</v>
+        <v>7.945412523389379</v>
       </c>
       <c r="F4">
-        <v>17.00420650614766</v>
+        <v>16.67112406602713</v>
       </c>
       <c r="G4">
-        <v>21.03050041736883</v>
+        <v>19.88984120471948</v>
       </c>
       <c r="I4">
-        <v>3.116292405941425</v>
+        <v>2.992269732806234</v>
       </c>
       <c r="J4">
-        <v>8.990931677884632</v>
+        <v>9.210428236147768</v>
       </c>
       <c r="K4">
-        <v>14.96873583995653</v>
+        <v>14.54055897680691</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.31725208388205</v>
       </c>
       <c r="M4">
-        <v>9.852681618684015</v>
+        <v>9.247213337854239</v>
       </c>
       <c r="N4">
-        <v>6.100214640635842</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>8.862199646449593</v>
+        <v>9.87594717528383</v>
       </c>
       <c r="P4">
-        <v>13.02329790817788</v>
+        <v>6.165182323710542</v>
       </c>
       <c r="Q4">
-        <v>14.36724945681602</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.770528252778051</v>
+      </c>
+      <c r="R4">
+        <v>12.90629605564417</v>
+      </c>
+      <c r="S4">
+        <v>14.08467626522244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.80705667333373</v>
+        <v>10.7343218935788</v>
       </c>
       <c r="C5">
-        <v>8.33639825328795</v>
+        <v>7.965127047497263</v>
       </c>
       <c r="D5">
-        <v>5.050502505244708</v>
+        <v>5.048714459381985</v>
       </c>
       <c r="E5">
-        <v>8.128163478424083</v>
+        <v>7.946611481360377</v>
       </c>
       <c r="F5">
-        <v>16.9491870114061</v>
+        <v>16.62237016368311</v>
       </c>
       <c r="G5">
-        <v>20.97858207792721</v>
+        <v>19.85724354891156</v>
       </c>
       <c r="I5">
-        <v>3.157495151744726</v>
+        <v>3.030050658457365</v>
       </c>
       <c r="J5">
-        <v>9.00278990855178</v>
+        <v>9.214728636149395</v>
       </c>
       <c r="K5">
-        <v>14.99118518877914</v>
+        <v>14.56561520711067</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.35303377145284</v>
       </c>
       <c r="M5">
-        <v>9.703843621269527</v>
+        <v>9.266628878150151</v>
       </c>
       <c r="N5">
-        <v>6.082048104593299</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>8.777342228114438</v>
+        <v>9.727951085271945</v>
       </c>
       <c r="P5">
-        <v>13.0595376662845</v>
+        <v>6.146043106348423</v>
       </c>
       <c r="Q5">
-        <v>14.3719160745681</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.68592943472005</v>
+      </c>
+      <c r="R5">
+        <v>12.93966009022584</v>
+      </c>
+      <c r="S5">
+        <v>14.09257828161127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.76282557130178</v>
+        <v>10.69212722104421</v>
       </c>
       <c r="C6">
-        <v>8.33512249172739</v>
+        <v>7.962109557255563</v>
       </c>
       <c r="D6">
-        <v>5.042452817313251</v>
+        <v>5.039979758585544</v>
       </c>
       <c r="E6">
-        <v>8.126491287549028</v>
+        <v>7.945193167335447</v>
       </c>
       <c r="F6">
-        <v>16.93428751441154</v>
+        <v>16.60843051600937</v>
       </c>
       <c r="G6">
-        <v>20.95996829131428</v>
+        <v>19.8416587802279</v>
       </c>
       <c r="I6">
-        <v>3.167995718824122</v>
+        <v>3.040624121080812</v>
       </c>
       <c r="J6">
-        <v>9.003253863693672</v>
+        <v>9.213867646979885</v>
       </c>
       <c r="K6">
-        <v>14.99058092848653</v>
+        <v>14.56546652305694</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.35469365492897</v>
       </c>
       <c r="M6">
-        <v>9.679019618499792</v>
+        <v>9.267924022791604</v>
       </c>
       <c r="N6">
-        <v>6.07991462583403</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>8.761985863084037</v>
+        <v>9.703278719665196</v>
       </c>
       <c r="P6">
-        <v>13.06544708933955</v>
+        <v>6.14375859318181</v>
       </c>
       <c r="Q6">
-        <v>14.36878223786352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.670586612854633</v>
+      </c>
+      <c r="R6">
+        <v>12.9451539592353</v>
+      </c>
+      <c r="S6">
+        <v>14.08994824244666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.01888364612327</v>
+        <v>10.93160720081683</v>
       </c>
       <c r="C7">
-        <v>8.371304678335525</v>
+        <v>8.014146395672475</v>
       </c>
       <c r="D7">
-        <v>5.109434573701641</v>
+        <v>5.114430467927257</v>
       </c>
       <c r="E7">
-        <v>8.124049344850912</v>
+        <v>7.94189361776896</v>
       </c>
       <c r="F7">
-        <v>16.98745884314518</v>
+        <v>16.64408148149159</v>
       </c>
       <c r="G7">
-        <v>21.00210756279436</v>
+        <v>19.93737712004538</v>
       </c>
       <c r="I7">
-        <v>3.126352883873835</v>
+        <v>3.00443190515705</v>
       </c>
       <c r="J7">
-        <v>8.986860277592426</v>
+        <v>9.176034606999236</v>
       </c>
       <c r="K7">
-        <v>14.95701011760167</v>
+        <v>14.5248192167448</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.30218235466261</v>
       </c>
       <c r="M7">
-        <v>9.851058735551579</v>
+        <v>9.238823439765621</v>
       </c>
       <c r="N7">
-        <v>6.102256001119932</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>8.857772711639617</v>
+        <v>9.871012550013795</v>
       </c>
       <c r="P7">
-        <v>13.0234435950057</v>
+        <v>6.167079556666573</v>
       </c>
       <c r="Q7">
-        <v>14.35638290391368</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.765104636959482</v>
+      </c>
+      <c r="R7">
+        <v>12.90657535406276</v>
+      </c>
+      <c r="S7">
+        <v>14.06696578140325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.09145242114068</v>
+        <v>11.94099784821331</v>
       </c>
       <c r="C8">
-        <v>8.521408356613415</v>
+        <v>8.237965668804904</v>
       </c>
       <c r="D8">
-        <v>5.390675376444151</v>
+        <v>5.422113485247817</v>
       </c>
       <c r="E8">
-        <v>8.123012298580361</v>
+        <v>7.934374904384062</v>
       </c>
       <c r="F8">
-        <v>17.2547793181173</v>
+        <v>16.85344468137569</v>
       </c>
       <c r="G8">
-        <v>21.24040909531806</v>
+        <v>20.25503785488993</v>
       </c>
       <c r="I8">
-        <v>2.942751684780559</v>
+        <v>2.841870146250706</v>
       </c>
       <c r="J8">
-        <v>8.925156132561163</v>
+        <v>9.081134711321214</v>
       </c>
       <c r="K8">
-        <v>14.83075282780084</v>
+        <v>14.37350873985699</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.09715736136111</v>
       </c>
       <c r="M8">
-        <v>10.57359833130134</v>
+        <v>9.160694276362131</v>
       </c>
       <c r="N8">
-        <v>6.204434437117859</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.27530755487002</v>
+        <v>10.58260240842892</v>
       </c>
       <c r="P8">
-        <v>12.84331151904897</v>
+        <v>6.274126196793023</v>
       </c>
       <c r="Q8">
-        <v>14.32619739335914</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.178115959266441</v>
+      </c>
+      <c r="R8">
+        <v>12.74193278488607</v>
+      </c>
+      <c r="S8">
+        <v>14.00215734517682</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.96200889199515</v>
+        <v>13.71057084491011</v>
       </c>
       <c r="C9">
-        <v>8.795767033169286</v>
+        <v>8.661049788706464</v>
       </c>
       <c r="D9">
-        <v>5.894718887146182</v>
+        <v>5.96488369216038</v>
       </c>
       <c r="E9">
-        <v>8.148954170032031</v>
+        <v>7.941365908095904</v>
       </c>
       <c r="F9">
-        <v>17.86744514363019</v>
+        <v>17.38143846092538</v>
       </c>
       <c r="G9">
-        <v>21.85045449674091</v>
+        <v>20.75126394492666</v>
       </c>
       <c r="I9">
-        <v>2.600498741395785</v>
+        <v>2.535582087684515</v>
       </c>
       <c r="J9">
-        <v>8.836452271956064</v>
+        <v>9.02042815584133</v>
       </c>
       <c r="K9">
-        <v>14.64385347729448</v>
+        <v>14.1422174207249</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.74775931621744</v>
       </c>
       <c r="M9">
-        <v>11.85480822914019</v>
+        <v>9.181000105662696</v>
       </c>
       <c r="N9">
-        <v>6.420714449309505</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.06210186601357</v>
+        <v>11.85579616730648</v>
       </c>
       <c r="P9">
-        <v>12.50731852285211</v>
+        <v>6.50119000439062</v>
       </c>
       <c r="Q9">
-        <v>14.33984303155087</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>9.95618896081994</v>
+      </c>
+      <c r="R9">
+        <v>12.43708456390603</v>
+      </c>
+      <c r="S9">
+        <v>13.96397975113499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.17620901003342</v>
+        <v>14.84680714974477</v>
       </c>
       <c r="C10">
-        <v>8.999377618482731</v>
+        <v>8.957209153892162</v>
       </c>
       <c r="D10">
-        <v>6.239752751357834</v>
+        <v>6.347961750103403</v>
       </c>
       <c r="E10">
-        <v>8.17841960480672</v>
+        <v>7.961159355925193</v>
       </c>
       <c r="F10">
-        <v>18.34512879114869</v>
+        <v>17.73692776927046</v>
       </c>
       <c r="G10">
-        <v>22.34378165205178</v>
+        <v>21.60064562778199</v>
       </c>
       <c r="I10">
-        <v>2.592333837884611</v>
+        <v>2.637944623040395</v>
       </c>
       <c r="J10">
-        <v>8.785344494940666</v>
+        <v>8.816841913073015</v>
       </c>
       <c r="K10">
-        <v>14.52629131063448</v>
+        <v>13.96162731242779</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.48206286458213</v>
       </c>
       <c r="M10">
-        <v>12.71109921758347</v>
+        <v>9.263325795310779</v>
       </c>
       <c r="N10">
-        <v>6.591862683766252</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>10.61002034757852</v>
+        <v>12.69107998967455</v>
       </c>
       <c r="P10">
-        <v>12.27049630239245</v>
+        <v>6.679547197979028</v>
       </c>
       <c r="Q10">
-        <v>14.37967876057933</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.49098796486997</v>
+      </c>
+      <c r="R10">
+        <v>12.2259449535424</v>
+      </c>
+      <c r="S10">
+        <v>13.92073358543602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.67818172018238</v>
+        <v>15.29557785600728</v>
       </c>
       <c r="C11">
-        <v>9.105976403875026</v>
+        <v>9.081972292234445</v>
       </c>
       <c r="D11">
-        <v>6.395534199099641</v>
+        <v>6.541556410324374</v>
       </c>
       <c r="E11">
-        <v>8.187516232762823</v>
+        <v>7.976222904817343</v>
       </c>
       <c r="F11">
-        <v>18.54594931311416</v>
+        <v>17.78411092607835</v>
       </c>
       <c r="G11">
-        <v>22.53938103711763</v>
+        <v>22.72518849551318</v>
       </c>
       <c r="I11">
-        <v>2.700739251560161</v>
+        <v>2.734126481488469</v>
       </c>
       <c r="J11">
-        <v>8.759002793609136</v>
+        <v>8.46247050456471</v>
       </c>
       <c r="K11">
-        <v>14.45918550861112</v>
+        <v>13.82276960356738</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.32413218810256</v>
       </c>
       <c r="M11">
-        <v>13.08227942204273</v>
+        <v>9.265765985554049</v>
       </c>
       <c r="N11">
-        <v>6.675303684702811</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.84753714217041</v>
+        <v>13.0263382181809</v>
       </c>
       <c r="P11">
-        <v>12.16529629278797</v>
+        <v>6.764579716262091</v>
       </c>
       <c r="Q11">
-        <v>14.38861260228482</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.713654277209</v>
+      </c>
+      <c r="R11">
+        <v>12.13693302945875</v>
+      </c>
+      <c r="S11">
+        <v>13.82098601617103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.8732256963258</v>
+        <v>15.46856343896338</v>
       </c>
       <c r="C12">
-        <v>9.138620879155717</v>
+        <v>9.116457945110698</v>
       </c>
       <c r="D12">
-        <v>6.4509418291189</v>
+        <v>6.613608132135722</v>
       </c>
       <c r="E12">
-        <v>8.195173809478012</v>
+        <v>7.987529733773363</v>
       </c>
       <c r="F12">
-        <v>18.63576323013147</v>
+        <v>17.80352667938425</v>
       </c>
       <c r="G12">
-        <v>22.63766632313034</v>
+        <v>23.27565123881531</v>
       </c>
       <c r="I12">
-        <v>2.738123131873835</v>
+        <v>2.765666864005871</v>
       </c>
       <c r="J12">
-        <v>8.753225794365791</v>
+        <v>8.313272255148638</v>
       </c>
       <c r="K12">
-        <v>14.44510682714598</v>
+        <v>13.77521661968593</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.26860993022567</v>
       </c>
       <c r="M12">
-        <v>13.2198295312341</v>
+        <v>9.272471062292007</v>
       </c>
       <c r="N12">
-        <v>6.705376039504908</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>10.93883977233724</v>
+        <v>13.1472813318493</v>
       </c>
       <c r="P12">
-        <v>12.12557584032202</v>
+        <v>6.794999590694478</v>
       </c>
       <c r="Q12">
-        <v>14.40249440837368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.79826877714765</v>
+      </c>
+      <c r="R12">
+        <v>12.10369847136708</v>
+      </c>
+      <c r="S12">
+        <v>13.78430898770074</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.83331341131753</v>
+        <v>15.43349261752969</v>
       </c>
       <c r="C13">
-        <v>9.130048003621454</v>
+        <v>9.107276656015319</v>
       </c>
       <c r="D13">
-        <v>6.438518546824032</v>
+        <v>6.597477882087112</v>
       </c>
       <c r="E13">
-        <v>8.194268419305484</v>
+        <v>7.985764996415636</v>
       </c>
       <c r="F13">
-        <v>18.61891470558759</v>
+        <v>17.80238046311454</v>
       </c>
       <c r="G13">
-        <v>22.62087061389733</v>
+        <v>23.15713269205957</v>
       </c>
       <c r="I13">
-        <v>2.729355647721345</v>
+        <v>2.757951330206098</v>
       </c>
       <c r="J13">
-        <v>8.755176092176459</v>
+        <v>8.346417624045893</v>
       </c>
       <c r="K13">
-        <v>14.45019634138017</v>
+        <v>13.78764925657999</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.28197810652331</v>
       </c>
       <c r="M13">
-        <v>13.1902733732075</v>
+        <v>9.272895858213424</v>
       </c>
       <c r="N13">
-        <v>6.698524218865325</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>10.91971347901914</v>
+        <v>13.12142949361334</v>
       </c>
       <c r="P13">
-        <v>12.13407177186036</v>
+        <v>6.788080019927313</v>
       </c>
       <c r="Q13">
-        <v>14.40130864881658</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.78063622731547</v>
+      </c>
+      <c r="R13">
+        <v>12.11068173172467</v>
+      </c>
+      <c r="S13">
+        <v>13.79438168405786</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.69512947220121</v>
+        <v>15.31075173427526</v>
       </c>
       <c r="C14">
-        <v>9.108005927509678</v>
+        <v>9.084063849111338</v>
       </c>
       <c r="D14">
-        <v>6.399884186266561</v>
+        <v>6.547221190341515</v>
       </c>
       <c r="E14">
-        <v>8.188462062064007</v>
+        <v>7.977436128559789</v>
       </c>
       <c r="F14">
-        <v>18.5544006990637</v>
+        <v>17.78701463547275</v>
       </c>
       <c r="G14">
-        <v>22.54932820856157</v>
+        <v>22.77038053403673</v>
       </c>
       <c r="I14">
-        <v>2.703500576247366</v>
+        <v>2.7363184790971</v>
       </c>
       <c r="J14">
-        <v>8.758826948379349</v>
+        <v>8.450684775991167</v>
       </c>
       <c r="K14">
-        <v>14.45890014397442</v>
+        <v>13.81979614425445</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.32017447523906</v>
       </c>
       <c r="M14">
-        <v>13.09362747872369</v>
+        <v>9.267111125583749</v>
       </c>
       <c r="N14">
-        <v>6.677617448573356</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>10.85527920405093</v>
+        <v>13.03637776085715</v>
       </c>
       <c r="P14">
-        <v>12.16200416613891</v>
+        <v>6.766925300662742</v>
       </c>
       <c r="Q14">
-        <v>14.3905205334243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.72087003288322</v>
+      </c>
+      <c r="R14">
+        <v>12.13412641388596</v>
+      </c>
+      <c r="S14">
+        <v>13.81890313375105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.60610502403505</v>
+        <v>15.23092472806396</v>
       </c>
       <c r="C15">
-        <v>9.097551370381677</v>
+        <v>9.073203079822362</v>
       </c>
       <c r="D15">
-        <v>6.377157551858903</v>
+        <v>6.517717036631197</v>
       </c>
       <c r="E15">
-        <v>8.18345548869994</v>
+        <v>7.971091801575889</v>
       </c>
       <c r="F15">
-        <v>18.50997930367448</v>
+        <v>17.7711051674674</v>
       </c>
       <c r="G15">
-        <v>22.49692003592153</v>
+        <v>22.53773653027521</v>
       </c>
       <c r="I15">
-        <v>2.689194906083472</v>
+        <v>2.725014116614249</v>
       </c>
       <c r="J15">
-        <v>8.759695903437839</v>
+        <v>8.511589006421618</v>
       </c>
       <c r="K15">
-        <v>14.46022043522937</v>
+        <v>13.83494090664065</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.34061424735039</v>
       </c>
       <c r="M15">
-        <v>13.03418072318809</v>
+        <v>9.259798839793962</v>
       </c>
       <c r="N15">
-        <v>6.665568157493664</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>10.81469636558839</v>
+        <v>12.9836539524624</v>
       </c>
       <c r="P15">
-        <v>12.17923333699016</v>
+        <v>6.7547003909709</v>
       </c>
       <c r="Q15">
-        <v>14.38040442000318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.68299449671112</v>
+      </c>
+      <c r="R15">
+        <v>12.14884880322164</v>
+      </c>
+      <c r="S15">
+        <v>13.82927856237197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.11022570074538</v>
+        <v>14.78393331640296</v>
       </c>
       <c r="C16">
-        <v>9.018065097535256</v>
+        <v>8.98061007471609</v>
       </c>
       <c r="D16">
-        <v>6.238466959450085</v>
+        <v>6.344764486093474</v>
       </c>
       <c r="E16">
-        <v>8.165173190021809</v>
+        <v>7.947850713716247</v>
       </c>
       <c r="F16">
-        <v>18.28933500054258</v>
+        <v>17.68953859425348</v>
       </c>
       <c r="G16">
-        <v>22.25625409036142</v>
+        <v>21.46348485623203</v>
       </c>
       <c r="I16">
-        <v>2.59723443257826</v>
+        <v>2.647018982249666</v>
       </c>
       <c r="J16">
-        <v>8.774989512050043</v>
+        <v>8.825958695587985</v>
       </c>
       <c r="K16">
-        <v>14.4959748723145</v>
+        <v>13.93690092651253</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.46895090871785</v>
       </c>
       <c r="M16">
-        <v>12.68738520282947</v>
+        <v>9.234619850541023</v>
       </c>
       <c r="N16">
-        <v>6.592561868230949</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>10.58606840708159</v>
+        <v>12.66935748775263</v>
       </c>
       <c r="P16">
-        <v>12.27797048055349</v>
+        <v>6.680178775991775</v>
       </c>
       <c r="Q16">
-        <v>14.34825218477813</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.467774538884</v>
+      </c>
+      <c r="R16">
+        <v>12.23352267167869</v>
+      </c>
+      <c r="S16">
+        <v>13.89571945450592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.79755880256914</v>
+        <v>14.49775598770823</v>
       </c>
       <c r="C17">
-        <v>8.969104273936431</v>
+        <v>8.917872054370122</v>
       </c>
       <c r="D17">
-        <v>6.151798913927746</v>
+        <v>6.241294562079309</v>
       </c>
       <c r="E17">
-        <v>8.154730738423591</v>
+        <v>7.936672497497646</v>
       </c>
       <c r="F17">
-        <v>18.1558826846606</v>
+        <v>17.6203845831819</v>
       </c>
       <c r="G17">
-        <v>22.11205777488392</v>
+        <v>20.9762874779527</v>
       </c>
       <c r="I17">
-        <v>2.540517102579949</v>
+        <v>2.598392571012905</v>
       </c>
       <c r="J17">
-        <v>8.78539633691789</v>
+        <v>8.971442022458561</v>
       </c>
       <c r="K17">
-        <v>14.51962810690748</v>
+        <v>13.99139410518135</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.54283665343396</v>
       </c>
       <c r="M17">
-        <v>12.46979080278157</v>
+        <v>9.215555779068302</v>
       </c>
       <c r="N17">
-        <v>6.548313611628355</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>10.44392219304867</v>
+        <v>12.46631517746837</v>
       </c>
       <c r="P17">
-        <v>12.33904317664652</v>
+        <v>6.634615168769795</v>
       </c>
       <c r="Q17">
-        <v>14.33077304486902</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.33196562085238</v>
+      </c>
+      <c r="R17">
+        <v>12.28695539294676</v>
+      </c>
+      <c r="S17">
+        <v>13.92310504645322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.62475367430364</v>
+        <v>14.33891783303152</v>
       </c>
       <c r="C18">
-        <v>8.933008996706262</v>
+        <v>8.869733991731353</v>
       </c>
       <c r="D18">
-        <v>6.098587663620362</v>
+        <v>6.179886071615988</v>
       </c>
       <c r="E18">
-        <v>8.15286605761937</v>
+        <v>7.935117209471552</v>
       </c>
       <c r="F18">
-        <v>18.09296242496666</v>
+        <v>17.58697704907904</v>
       </c>
       <c r="G18">
-        <v>22.05334414687316</v>
+        <v>20.77955255705558</v>
       </c>
       <c r="I18">
-        <v>2.502932834064961</v>
+        <v>2.564051587475533</v>
       </c>
       <c r="J18">
-        <v>8.795433361186118</v>
+        <v>9.038477918894367</v>
       </c>
       <c r="K18">
-        <v>14.54437563527415</v>
+        <v>14.03003698989897</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.59079106363546</v>
       </c>
       <c r="M18">
-        <v>12.34257445135397</v>
+        <v>9.211906875781214</v>
       </c>
       <c r="N18">
-        <v>6.521192588734563</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>10.3640470146894</v>
+        <v>12.34545788577557</v>
       </c>
       <c r="P18">
-        <v>12.37422405308623</v>
+        <v>6.606584434503829</v>
       </c>
       <c r="Q18">
-        <v>14.33095032710095</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.2550858916565</v>
+      </c>
+      <c r="R18">
+        <v>12.31776493949427</v>
+      </c>
+      <c r="S18">
+        <v>13.94349149781732</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.55789345056516</v>
+        <v>14.27654151571445</v>
       </c>
       <c r="C19">
-        <v>8.926829061631363</v>
+        <v>8.860652609576293</v>
       </c>
       <c r="D19">
-        <v>6.082617737542209</v>
+        <v>6.161452035113061</v>
       </c>
       <c r="E19">
-        <v>8.149306679916918</v>
+        <v>7.931826337269429</v>
       </c>
       <c r="F19">
-        <v>18.06167103529692</v>
+        <v>17.56440184589455</v>
       </c>
       <c r="G19">
-        <v>22.01599319583247</v>
+        <v>20.70485194770634</v>
       </c>
       <c r="I19">
-        <v>2.516934028078873</v>
+        <v>2.55692721225518</v>
       </c>
       <c r="J19">
-        <v>8.796054702221891</v>
+        <v>9.054866123533694</v>
       </c>
       <c r="K19">
-        <v>14.54474016757848</v>
+        <v>14.03486932907703</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.60109694912535</v>
       </c>
       <c r="M19">
-        <v>12.29941892691226</v>
+        <v>9.20408045144908</v>
       </c>
       <c r="N19">
-        <v>6.513489924108276</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>10.33492188966469</v>
+        <v>12.30412919416252</v>
       </c>
       <c r="P19">
-        <v>12.38627215916099</v>
+        <v>6.598568405666995</v>
       </c>
       <c r="Q19">
-        <v>14.32388394994793</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.22683883104447</v>
+      </c>
+      <c r="R19">
+        <v>12.3285984286074</v>
+      </c>
+      <c r="S19">
+        <v>13.94244451651318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.83195269203053</v>
+        <v>14.52946626682178</v>
       </c>
       <c r="C20">
-        <v>8.973706881456934</v>
+        <v>8.924006116430821</v>
       </c>
       <c r="D20">
-        <v>6.160867775769322</v>
+        <v>6.251987822004867</v>
       </c>
       <c r="E20">
-        <v>8.156115578704782</v>
+        <v>7.938049960007541</v>
       </c>
       <c r="F20">
-        <v>18.17104013596411</v>
+        <v>17.62947872050201</v>
       </c>
       <c r="G20">
-        <v>22.1290700423864</v>
+        <v>21.02370495950596</v>
       </c>
       <c r="I20">
-        <v>2.546182709125814</v>
+        <v>2.603119446628408</v>
       </c>
       <c r="J20">
-        <v>8.784538945031665</v>
+        <v>8.958267834557899</v>
       </c>
       <c r="K20">
-        <v>14.51787174306288</v>
+        <v>13.98667644225827</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.53572252690686</v>
       </c>
       <c r="M20">
-        <v>12.49311545034995</v>
+        <v>9.218358842236171</v>
       </c>
       <c r="N20">
-        <v>6.552856500690897</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>10.45932299661499</v>
+        <v>12.48829498776767</v>
       </c>
       <c r="P20">
-        <v>12.33251064747862</v>
+        <v>6.639310299571457</v>
       </c>
       <c r="Q20">
-        <v>14.3332877212213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.34676440903056</v>
+      </c>
+      <c r="R20">
+        <v>12.28118012940631</v>
+      </c>
+      <c r="S20">
+        <v>13.92140617818078</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.72523136760874</v>
+        <v>15.32939921982137</v>
       </c>
       <c r="C21">
-        <v>9.123174005137621</v>
+        <v>9.092295508356237</v>
       </c>
       <c r="D21">
-        <v>6.414238975085564</v>
+        <v>6.572532735693025</v>
       </c>
       <c r="E21">
-        <v>8.185880181138851</v>
+        <v>7.979387591472102</v>
       </c>
       <c r="F21">
-        <v>18.55906483990083</v>
+        <v>17.74290707799598</v>
       </c>
       <c r="G21">
-        <v>22.54528059785948</v>
+        <v>23.13037825885977</v>
       </c>
       <c r="I21">
-        <v>2.715546103636122</v>
+        <v>2.747305685180886</v>
       </c>
       <c r="J21">
-        <v>8.753637297464408</v>
+        <v>8.335360676634622</v>
       </c>
       <c r="K21">
-        <v>14.44455728457829</v>
+        <v>13.78439816915193</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.29169866045697</v>
       </c>
       <c r="M21">
-        <v>13.12239384102199</v>
+        <v>9.24594067973837</v>
       </c>
       <c r="N21">
-        <v>6.685786100256585</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>10.87149648960505</v>
+        <v>13.05235458365837</v>
       </c>
       <c r="P21">
-        <v>12.15404546081923</v>
+        <v>6.774578552079663</v>
       </c>
       <c r="Q21">
-        <v>14.38322471384746</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>10.73267101701284</v>
+      </c>
+      <c r="R21">
+        <v>12.12910732115291</v>
+      </c>
+      <c r="S21">
+        <v>13.77698223393953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.2949713217764</v>
+        <v>15.83837509072704</v>
       </c>
       <c r="C22">
-        <v>9.209186717165062</v>
+        <v>9.185432323458501</v>
       </c>
       <c r="D22">
-        <v>6.570792603740314</v>
+        <v>6.774383008103271</v>
       </c>
       <c r="E22">
-        <v>8.213315431111294</v>
+        <v>8.016532793289279</v>
       </c>
       <c r="F22">
-        <v>18.83679879962237</v>
+        <v>17.82709085711517</v>
       </c>
       <c r="G22">
-        <v>22.86023010032992</v>
+        <v>24.67945621124066</v>
       </c>
       <c r="I22">
-        <v>2.819420576068421</v>
+        <v>2.833672917085453</v>
       </c>
       <c r="J22">
-        <v>8.742092100942903</v>
+        <v>7.976464172033467</v>
       </c>
       <c r="K22">
-        <v>14.41736738948033</v>
+        <v>13.66274387486369</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.14297906280271</v>
       </c>
       <c r="M22">
-        <v>13.51734372766601</v>
+        <v>9.282759066362125</v>
       </c>
       <c r="N22">
-        <v>6.771767994687389</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>11.13790049900642</v>
+        <v>13.40300655310429</v>
       </c>
       <c r="P22">
-        <v>12.03869072610568</v>
+        <v>6.861697578378258</v>
       </c>
       <c r="Q22">
-        <v>14.43662395411066</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>10.98061515616259</v>
+      </c>
+      <c r="R22">
+        <v>12.03245699080563</v>
+      </c>
+      <c r="S22">
+        <v>13.68975935457243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.00606635488036</v>
+        <v>15.58665418763918</v>
       </c>
       <c r="C23">
-        <v>9.15290251273793</v>
+        <v>9.129593729697925</v>
       </c>
       <c r="D23">
-        <v>6.48415125913461</v>
+        <v>6.658160035573498</v>
       </c>
       <c r="E23">
-        <v>8.203585505964421</v>
+        <v>7.998700842833936</v>
       </c>
       <c r="F23">
-        <v>18.70514116878172</v>
+        <v>17.82392584890093</v>
       </c>
       <c r="G23">
-        <v>22.72114717594903</v>
+        <v>23.68057083894067</v>
       </c>
       <c r="I23">
-        <v>2.759232893693465</v>
+        <v>2.782044071572276</v>
       </c>
       <c r="J23">
-        <v>8.752874449070765</v>
+        <v>8.216440036238843</v>
       </c>
       <c r="K23">
-        <v>14.44551944607101</v>
+        <v>13.75172386261248</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.2376871998802</v>
       </c>
       <c r="M23">
-        <v>13.3076509077801</v>
+        <v>9.2836308582449</v>
       </c>
       <c r="N23">
-        <v>6.723287189945235</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>10.99960758627631</v>
+        <v>13.22354912064085</v>
       </c>
       <c r="P23">
-        <v>12.09979310796904</v>
+        <v>6.813049738486968</v>
       </c>
       <c r="Q23">
-        <v>14.41997747016142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>10.85442837830581</v>
+      </c>
+      <c r="R23">
+        <v>12.08193259545797</v>
+      </c>
+      <c r="S23">
+        <v>13.76623742465518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.83765211529435</v>
+        <v>14.53644270165906</v>
       </c>
       <c r="C24">
-        <v>8.955083282478451</v>
+        <v>8.900515479626364</v>
       </c>
       <c r="D24">
-        <v>6.150919282067948</v>
+        <v>6.241160353404755</v>
       </c>
       <c r="E24">
-        <v>8.163648728017368</v>
+        <v>7.945487363312323</v>
       </c>
       <c r="F24">
-        <v>18.19183045743402</v>
+        <v>17.6530529706581</v>
       </c>
       <c r="G24">
-        <v>22.1697624588084</v>
+        <v>21.05170549870537</v>
       </c>
       <c r="I24">
-        <v>2.534622541987162</v>
+        <v>2.58960635100073</v>
       </c>
       <c r="J24">
-        <v>8.792716976693024</v>
+        <v>8.971536289065167</v>
       </c>
       <c r="K24">
-        <v>14.54096045950326</v>
+        <v>14.01015311185258</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.55414136885561</v>
       </c>
       <c r="M24">
-        <v>12.48197330717152</v>
+        <v>9.234925365384674</v>
       </c>
       <c r="N24">
-        <v>6.54685481677747</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>10.45773042389073</v>
+        <v>12.47772387742906</v>
       </c>
       <c r="P24">
-        <v>12.33515555289149</v>
+        <v>6.633195781511442</v>
       </c>
       <c r="Q24">
-        <v>14.35206328813686</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.34550280542742</v>
+      </c>
+      <c r="R24">
+        <v>12.28285576018804</v>
+      </c>
+      <c r="S24">
+        <v>13.94181949880829</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.46084101947677</v>
+        <v>13.23837279051036</v>
       </c>
       <c r="C25">
-        <v>8.737923064255325</v>
+        <v>8.571289393289364</v>
       </c>
       <c r="D25">
-        <v>5.768935247781445</v>
+        <v>5.826057961525898</v>
       </c>
       <c r="E25">
-        <v>8.131754597651041</v>
+        <v>7.928249807094469</v>
       </c>
       <c r="F25">
-        <v>17.66776541696413</v>
+        <v>17.21941973195086</v>
       </c>
       <c r="G25">
-        <v>21.62702101965979</v>
+        <v>20.44917856900997</v>
       </c>
       <c r="I25">
-        <v>2.707440378789194</v>
+        <v>2.635576249794735</v>
       </c>
       <c r="J25">
-        <v>8.850099960797793</v>
+        <v>9.069753391987025</v>
       </c>
       <c r="K25">
-        <v>14.66834267703782</v>
+        <v>14.18647288165113</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.82839154378403</v>
       </c>
       <c r="M25">
-        <v>11.52362119918972</v>
+        <v>9.147708803352799</v>
       </c>
       <c r="N25">
-        <v>6.364113316170037</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>9.848459157700423</v>
+        <v>11.53086654850069</v>
       </c>
       <c r="P25">
-        <v>12.59645130763445</v>
+        <v>6.441890722496428</v>
       </c>
       <c r="Q25">
-        <v>14.31065106795482</v>
+        <v>9.746425250724435</v>
+      </c>
+      <c r="R25">
+        <v>12.5179102344821</v>
+      </c>
+      <c r="S25">
+        <v>13.95965283404031</v>
       </c>
     </row>
   </sheetData>
